--- a/TSP/Solutions/GA_48.xlsx
+++ b/TSP/Solutions/GA_48.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProjects\ComputationalInteligence\TSP\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\3 rok\InteligencjaObliczeniowa\ComputationalInteligence\TSP\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5975EAC-31D8-49DF-B8F2-639200D3D166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622329E-7547-4895-944C-FBC7A16CA694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2162,7 +2162,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -2468,16 +2468,21 @@
   <dimension ref="A1:M669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2559,7 +2564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2846,7 +2851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2887,7 +2892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2928,7 +2933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2969,7 +2974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3092,7 +3097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3133,7 +3138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3297,7 +3302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3379,7 +3384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3420,7 +3425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3461,7 +3466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3543,7 +3548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3625,7 +3630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3666,7 +3671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3707,7 +3712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3789,7 +3794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3830,7 +3835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3871,7 +3876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3912,7 +3917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3953,7 +3958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -4076,7 +4081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -4117,7 +4122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -4158,7 +4163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -4240,7 +4245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -4281,7 +4286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -4363,7 +4368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -4404,7 +4409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -4445,7 +4450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -4486,7 +4491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -4527,7 +4532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -4568,7 +4573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -4609,7 +4614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4691,7 +4696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4732,7 +4737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4814,7 +4819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4896,7 +4901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4937,7 +4942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -5101,7 +5106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -5142,7 +5147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -5183,7 +5188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -5224,7 +5229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -5347,7 +5352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -5388,7 +5393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -5429,7 +5434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -5470,7 +5475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -5552,7 +5557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5593,7 +5598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5675,7 +5680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5716,7 +5721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -5757,7 +5762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -5798,7 +5803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -5839,7 +5844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -5880,7 +5885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -5921,7 +5926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -6044,7 +6049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -6085,7 +6090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -6126,7 +6131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -6167,7 +6172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -6249,7 +6254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -6331,7 +6336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -6372,7 +6377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -6413,7 +6418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -6495,7 +6500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -6536,7 +6541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6577,7 +6582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -6618,7 +6623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -6659,7 +6664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -6700,7 +6705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -6782,7 +6787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -6823,7 +6828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -6864,7 +6869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -6905,7 +6910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -6946,7 +6951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -6987,7 +6992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -7028,7 +7033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -7069,7 +7074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -7110,7 +7115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -7151,7 +7156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -7192,7 +7197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -7233,7 +7238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -7274,7 +7279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -7315,7 +7320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -7356,7 +7361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -7397,7 +7402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>13</v>
       </c>
@@ -7438,7 +7443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -7479,7 +7484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -7520,7 +7525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -7561,7 +7566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>13</v>
       </c>
@@ -7602,7 +7607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -7643,7 +7648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -7684,7 +7689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>13</v>
       </c>
@@ -7725,7 +7730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -7807,7 +7812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -7848,7 +7853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>13</v>
       </c>
@@ -7889,7 +7894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -7930,7 +7935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -7971,7 +7976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -8012,7 +8017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -8053,7 +8058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -8094,7 +8099,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>13</v>
       </c>
@@ -8135,7 +8140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -8176,7 +8181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -8217,7 +8222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>13</v>
       </c>
@@ -8299,7 +8304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>13</v>
       </c>
@@ -8340,7 +8345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -8381,7 +8386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -8422,7 +8427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>13</v>
       </c>
@@ -8463,7 +8468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -8504,7 +8509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>13</v>
       </c>
@@ -8545,7 +8550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -8627,7 +8632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -8668,7 +8673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>13</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -8750,7 +8755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>13</v>
       </c>
@@ -8791,7 +8796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -8832,7 +8837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -8873,7 +8878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -8914,7 +8919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -8996,7 +9001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -9037,7 +9042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -9078,7 +9083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -9119,7 +9124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -9160,7 +9165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -9201,7 +9206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -9242,7 +9247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -9324,7 +9329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -9365,7 +9370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -9406,7 +9411,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -9447,7 +9452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -9488,7 +9493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -9529,7 +9534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -9570,7 +9575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -9611,7 +9616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -9652,7 +9657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -9693,7 +9698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -9734,7 +9739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -9775,7 +9780,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -9816,7 +9821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -9857,7 +9862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -9898,7 +9903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -9939,7 +9944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -9980,7 +9985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -10021,7 +10026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -10062,7 +10067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -10103,7 +10108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -10144,7 +10149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -10185,7 +10190,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -10226,7 +10231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -10267,7 +10272,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -10308,7 +10313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -10349,7 +10354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -10390,7 +10395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -10431,7 +10436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -10472,7 +10477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -10513,7 +10518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -10554,7 +10559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -10595,7 +10600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -10636,7 +10641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -10677,7 +10682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -10718,7 +10723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -10759,7 +10764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>13</v>
       </c>
@@ -10800,7 +10805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -10841,7 +10846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>13</v>
       </c>
@@ -10882,7 +10887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -10923,7 +10928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -10964,7 +10969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -11005,7 +11010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>13</v>
       </c>
@@ -11046,7 +11051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -11087,7 +11092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -11128,7 +11133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>13</v>
       </c>
@@ -11169,7 +11174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -11210,7 +11215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -11251,7 +11256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>13</v>
       </c>
@@ -11292,7 +11297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -11333,7 +11338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -11374,7 +11379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -11415,7 +11420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -11456,7 +11461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -11497,7 +11502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -11538,7 +11543,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -11579,7 +11584,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -11620,7 +11625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -11661,7 +11666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -11702,7 +11707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -11743,7 +11748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -11784,7 +11789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -11825,7 +11830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -11866,7 +11871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -11907,7 +11912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -11948,7 +11953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -11989,7 +11994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -12030,7 +12035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -12071,7 +12076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -12112,7 +12117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -12153,7 +12158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -12194,7 +12199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -12235,7 +12240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -12276,7 +12281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -12317,7 +12322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -12358,7 +12363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -12399,7 +12404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -12440,7 +12445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -12481,7 +12486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -12522,7 +12527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>13</v>
       </c>
@@ -12563,7 +12568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -12604,7 +12609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>13</v>
       </c>
@@ -12645,7 +12650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -12686,7 +12691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -12727,7 +12732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -12768,7 +12773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -12809,7 +12814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -12850,7 +12855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>13</v>
       </c>
@@ -12891,7 +12896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>13</v>
       </c>
@@ -12932,7 +12937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -12973,7 +12978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -13014,7 +13019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>13</v>
       </c>
@@ -13055,7 +13060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>13</v>
       </c>
@@ -13096,7 +13101,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -13137,7 +13142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>13</v>
       </c>
@@ -13178,7 +13183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -13219,7 +13224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -13260,7 +13265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -13301,7 +13306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>13</v>
       </c>
@@ -13342,7 +13347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -13383,7 +13388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -13424,7 +13429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -13465,7 +13470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -13506,7 +13511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>13</v>
       </c>
@@ -13547,7 +13552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -13588,7 +13593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>13</v>
       </c>
@@ -13629,7 +13634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -13670,7 +13675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -13711,7 +13716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -13752,7 +13757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -13793,7 +13798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>13</v>
       </c>
@@ -13834,7 +13839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -13875,7 +13880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>13</v>
       </c>
@@ -13916,7 +13921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -13957,7 +13962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>13</v>
       </c>
@@ -13998,7 +14003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -14039,7 +14044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>13</v>
       </c>
@@ -14080,7 +14085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -14121,7 +14126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -14162,7 +14167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -14203,7 +14208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>13</v>
       </c>
@@ -14244,7 +14249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -14285,7 +14290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>13</v>
       </c>
@@ -14326,7 +14331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -14367,7 +14372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>13</v>
       </c>
@@ -14408,7 +14413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -14449,7 +14454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>13</v>
       </c>
@@ -14490,7 +14495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -14531,7 +14536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>13</v>
       </c>
@@ -14572,7 +14577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -14613,7 +14618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -14654,7 +14659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>13</v>
       </c>
@@ -14695,7 +14700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -14736,7 +14741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -14777,7 +14782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>13</v>
       </c>
@@ -14818,7 +14823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>13</v>
       </c>
@@ -14859,7 +14864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -14900,7 +14905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -14941,7 +14946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>13</v>
       </c>
@@ -14982,7 +14987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -15023,7 +15028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>13</v>
       </c>
@@ -15064,7 +15069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>13</v>
       </c>
@@ -15105,7 +15110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -15146,7 +15151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -15187,7 +15192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>13</v>
       </c>
@@ -15228,7 +15233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -15269,7 +15274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>13</v>
       </c>
@@ -15310,7 +15315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -15351,7 +15356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -15392,7 +15397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>13</v>
       </c>
@@ -15433,7 +15438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -15474,7 +15479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -15515,7 +15520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -15556,7 +15561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>13</v>
       </c>
@@ -15597,7 +15602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -15638,7 +15643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>13</v>
       </c>
@@ -15679,7 +15684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -15720,7 +15725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -15761,7 +15766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -15802,7 +15807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>13</v>
       </c>
@@ -15843,7 +15848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -15884,7 +15889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>13</v>
       </c>
@@ -15925,7 +15930,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -15966,7 +15971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -16007,7 +16012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -16048,7 +16053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>13</v>
       </c>
@@ -16089,7 +16094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -16130,7 +16135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>13</v>
       </c>
@@ -16171,7 +16176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>13</v>
       </c>
@@ -16212,7 +16217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -16253,7 +16258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>13</v>
       </c>
@@ -16294,7 +16299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>13</v>
       </c>
@@ -16335,7 +16340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>13</v>
       </c>
@@ -16376,7 +16381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -16417,7 +16422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>13</v>
       </c>
@@ -16458,7 +16463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>13</v>
       </c>
@@ -16499,7 +16504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -16540,7 +16545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>13</v>
       </c>
@@ -16581,7 +16586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -16622,7 +16627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>13</v>
       </c>
@@ -16663,7 +16668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -16704,7 +16709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>13</v>
       </c>
@@ -16745,7 +16750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>13</v>
       </c>
@@ -16786,7 +16791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -16827,7 +16832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>13</v>
       </c>
@@ -16868,7 +16873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>13</v>
       </c>
@@ -16909,7 +16914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>13</v>
       </c>
@@ -16950,7 +16955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>13</v>
       </c>
@@ -16991,7 +16996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>13</v>
       </c>
@@ -17032,7 +17037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -17073,7 +17078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -17114,7 +17119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -17155,7 +17160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>13</v>
       </c>
@@ -17196,7 +17201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -17237,7 +17242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>13</v>
       </c>
@@ -17278,7 +17283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>13</v>
       </c>
@@ -17319,7 +17324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>13</v>
       </c>
@@ -17360,7 +17365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -17401,7 +17406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>13</v>
       </c>
@@ -17442,7 +17447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -17483,7 +17488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>13</v>
       </c>
@@ -17524,7 +17529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>13</v>
       </c>
@@ -17565,7 +17570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>13</v>
       </c>
@@ -17606,7 +17611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -17647,7 +17652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>13</v>
       </c>
@@ -17688,7 +17693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -17729,7 +17734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -17770,7 +17775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -17811,7 +17816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>13</v>
       </c>
@@ -17852,7 +17857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>13</v>
       </c>
@@ -17893,7 +17898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -17934,7 +17939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>13</v>
       </c>
@@ -17975,7 +17980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -18016,7 +18021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -18057,7 +18062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>13</v>
       </c>
@@ -18098,7 +18103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -18139,7 +18144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>13</v>
       </c>
@@ -18180,7 +18185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -18221,7 +18226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -18262,7 +18267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -18303,7 +18308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>13</v>
       </c>
@@ -18344,7 +18349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>13</v>
       </c>
@@ -18385,7 +18390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -18426,7 +18431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>13</v>
       </c>
@@ -18467,7 +18472,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -18508,7 +18513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>13</v>
       </c>
@@ -18549,7 +18554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -18590,7 +18595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -18631,7 +18636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>13</v>
       </c>
@@ -18672,7 +18677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -18713,7 +18718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -18754,7 +18759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -18795,7 +18800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>13</v>
       </c>
@@ -18836,7 +18841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -18877,7 +18882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -18918,7 +18923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>13</v>
       </c>
@@ -18959,7 +18964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>13</v>
       </c>
@@ -19000,7 +19005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -19041,7 +19046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -19082,7 +19087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -19123,7 +19128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>13</v>
       </c>
@@ -19164,7 +19169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>13</v>
       </c>
@@ -19205,7 +19210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -19246,7 +19251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>13</v>
       </c>
@@ -19287,7 +19292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>13</v>
       </c>
@@ -19328,7 +19333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -19369,7 +19374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -19410,7 +19415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>13</v>
       </c>
@@ -19451,7 +19456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>13</v>
       </c>
@@ -19492,7 +19497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -19533,7 +19538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>13</v>
       </c>
@@ -19574,7 +19579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>13</v>
       </c>
@@ -19615,7 +19620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -19656,7 +19661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -19697,7 +19702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -19738,7 +19743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>13</v>
       </c>
@@ -19779,7 +19784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>13</v>
       </c>
@@ -19820,7 +19825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -19861,7 +19866,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -19902,7 +19907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -19943,7 +19948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -19984,7 +19989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>13</v>
       </c>
@@ -20025,7 +20030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -20066,7 +20071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -20107,7 +20112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>13</v>
       </c>
@@ -20148,7 +20153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>13</v>
       </c>
@@ -20189,7 +20194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -20230,7 +20235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>13</v>
       </c>
@@ -20271,7 +20276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>13</v>
       </c>
@@ -20312,7 +20317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -20353,7 +20358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -20394,7 +20399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>13</v>
       </c>
@@ -20435,7 +20440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>13</v>
       </c>
@@ -20476,7 +20481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -20517,7 +20522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>13</v>
       </c>
@@ -20558,7 +20563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>13</v>
       </c>
@@ -20599,7 +20604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -20640,7 +20645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -20681,7 +20686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>13</v>
       </c>
@@ -20722,7 +20727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -20763,7 +20768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -20804,7 +20809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -20845,7 +20850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -20886,7 +20891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>13</v>
       </c>
@@ -20927,7 +20932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -20968,7 +20973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -21009,7 +21014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>13</v>
       </c>
@@ -21050,7 +21055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>13</v>
       </c>
@@ -21091,7 +21096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -21132,7 +21137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -21173,7 +21178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>13</v>
       </c>
@@ -21214,7 +21219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -21255,7 +21260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -21296,7 +21301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -21337,7 +21342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -21378,7 +21383,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>13</v>
       </c>
@@ -21419,7 +21424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -21460,7 +21465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -21501,7 +21506,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -21542,7 +21547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>13</v>
       </c>
@@ -21583,7 +21588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -21624,7 +21629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -21665,7 +21670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>13</v>
       </c>
@@ -21706,7 +21711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -21747,7 +21752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>13</v>
       </c>
@@ -21788,7 +21793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>13</v>
       </c>
@@ -21829,7 +21834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -21870,7 +21875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -21911,7 +21916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>13</v>
       </c>
@@ -21952,7 +21957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>13</v>
       </c>
@@ -21993,7 +21998,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -22034,7 +22039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -22075,7 +22080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -22116,7 +22121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>13</v>
       </c>
@@ -22157,7 +22162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>13</v>
       </c>
@@ -22198,7 +22203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>13</v>
       </c>
@@ -22239,7 +22244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -22280,7 +22285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>13</v>
       </c>
@@ -22321,7 +22326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -22362,7 +22367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>13</v>
       </c>
@@ -22403,7 +22408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>13</v>
       </c>
@@ -22444,7 +22449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>13</v>
       </c>
@@ -22485,7 +22490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>13</v>
       </c>
@@ -22526,7 +22531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -22567,7 +22572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -22608,7 +22613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -22649,7 +22654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>13</v>
       </c>
@@ -22690,7 +22695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>13</v>
       </c>
@@ -22731,7 +22736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>13</v>
       </c>
@@ -22772,7 +22777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>13</v>
       </c>
@@ -22813,7 +22818,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>13</v>
       </c>
@@ -22854,7 +22859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -22895,7 +22900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>13</v>
       </c>
@@ -22936,7 +22941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -22977,7 +22982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>13</v>
       </c>
@@ -23018,7 +23023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -23059,7 +23064,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -23100,7 +23105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>13</v>
       </c>
@@ -23141,7 +23146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>13</v>
       </c>
@@ -23182,7 +23187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -23223,7 +23228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -23264,7 +23269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>13</v>
       </c>
@@ -23305,7 +23310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>13</v>
       </c>
@@ -23346,7 +23351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -23387,7 +23392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -23428,7 +23433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>13</v>
       </c>
@@ -23469,7 +23474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>13</v>
       </c>
@@ -23510,7 +23515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>13</v>
       </c>
@@ -23551,7 +23556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>13</v>
       </c>
@@ -23592,7 +23597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>13</v>
       </c>
@@ -23633,7 +23638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -23674,7 +23679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>13</v>
       </c>
@@ -23715,7 +23720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>13</v>
       </c>
@@ -23756,7 +23761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>13</v>
       </c>
@@ -23797,7 +23802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>13</v>
       </c>
@@ -23838,7 +23843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>13</v>
       </c>
@@ -23879,7 +23884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>13</v>
       </c>
@@ -23920,7 +23925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>13</v>
       </c>
@@ -23961,7 +23966,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>13</v>
       </c>
@@ -24002,7 +24007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>13</v>
       </c>
@@ -24043,7 +24048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -24084,7 +24089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>13</v>
       </c>
@@ -24125,7 +24130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -24166,7 +24171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>13</v>
       </c>
@@ -24207,7 +24212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>13</v>
       </c>
@@ -24248,7 +24253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>13</v>
       </c>
@@ -24289,7 +24294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -24330,7 +24335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>13</v>
       </c>
@@ -24371,7 +24376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -24412,7 +24417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>13</v>
       </c>
@@ -24453,7 +24458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>13</v>
       </c>
@@ -24494,7 +24499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>13</v>
       </c>
@@ -24535,7 +24540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>13</v>
       </c>
@@ -24576,7 +24581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>13</v>
       </c>
@@ -24617,7 +24622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -24658,7 +24663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>13</v>
       </c>
@@ -24699,7 +24704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>13</v>
       </c>
@@ -24740,7 +24745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>13</v>
       </c>
@@ -24781,7 +24786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>13</v>
       </c>
@@ -24822,7 +24827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>13</v>
       </c>
@@ -24863,7 +24868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>13</v>
       </c>
@@ -24904,7 +24909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>13</v>
       </c>
@@ -24945,7 +24950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>13</v>
       </c>
@@ -24986,7 +24991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>13</v>
       </c>
@@ -25027,7 +25032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -25068,7 +25073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>13</v>
       </c>
@@ -25109,7 +25114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>13</v>
       </c>
@@ -25150,7 +25155,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>13</v>
       </c>
@@ -25191,7 +25196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>13</v>
       </c>
@@ -25232,7 +25237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -25273,7 +25278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>13</v>
       </c>
@@ -25314,7 +25319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -25355,7 +25360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>13</v>
       </c>
@@ -25396,7 +25401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -25437,7 +25442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>13</v>
       </c>
@@ -25478,7 +25483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -25519,7 +25524,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>13</v>
       </c>
@@ -25560,7 +25565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -25601,7 +25606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>13</v>
       </c>
@@ -25642,7 +25647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -25683,7 +25688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>13</v>
       </c>
@@ -25724,7 +25729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -25765,7 +25770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>13</v>
       </c>
@@ -25806,7 +25811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>13</v>
       </c>
@@ -25847,7 +25852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>13</v>
       </c>
@@ -25888,7 +25893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>13</v>
       </c>
@@ -25929,7 +25934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>13</v>
       </c>
@@ -25970,7 +25975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>13</v>
       </c>
@@ -26011,7 +26016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>13</v>
       </c>
@@ -26052,7 +26057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>13</v>
       </c>
@@ -26093,7 +26098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>13</v>
       </c>
@@ -26134,7 +26139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -26175,7 +26180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>13</v>
       </c>
@@ -26216,7 +26221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>13</v>
       </c>
@@ -26257,7 +26262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>13</v>
       </c>
@@ -26298,7 +26303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>13</v>
       </c>
@@ -26339,7 +26344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -26380,7 +26385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>13</v>
       </c>
@@ -26421,7 +26426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>13</v>
       </c>
@@ -26462,7 +26467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>13</v>
       </c>
@@ -26503,7 +26508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>13</v>
       </c>
@@ -26544,7 +26549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>13</v>
       </c>
@@ -26585,7 +26590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>13</v>
       </c>
@@ -26626,7 +26631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>13</v>
       </c>
@@ -26667,7 +26672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -26708,7 +26713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>13</v>
       </c>
@@ -26749,7 +26754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>13</v>
       </c>
@@ -26790,7 +26795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>13</v>
       </c>
@@ -26831,7 +26836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>13</v>
       </c>
@@ -26872,7 +26877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>13</v>
       </c>
@@ -26913,7 +26918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>13</v>
       </c>
@@ -26954,7 +26959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>13</v>
       </c>
@@ -26995,7 +27000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>13</v>
       </c>
@@ -27036,7 +27041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>13</v>
       </c>
@@ -27077,7 +27082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>13</v>
       </c>
@@ -27118,7 +27123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>13</v>
       </c>
@@ -27159,7 +27164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>13</v>
       </c>
@@ -27200,7 +27205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>13</v>
       </c>
@@ -27241,7 +27246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>13</v>
       </c>
@@ -27282,7 +27287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>13</v>
       </c>
@@ -27323,7 +27328,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>13</v>
       </c>
@@ -27364,7 +27369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>13</v>
       </c>
@@ -27405,7 +27410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>13</v>
       </c>
@@ -27446,7 +27451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>13</v>
       </c>
@@ -27487,7 +27492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>13</v>
       </c>
@@ -27528,7 +27533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>13</v>
       </c>
@@ -27569,7 +27574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>13</v>
       </c>
@@ -27610,7 +27615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>13</v>
       </c>
@@ -27651,7 +27656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>13</v>
       </c>
@@ -27692,7 +27697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>13</v>
       </c>
@@ -27733,7 +27738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>13</v>
       </c>
@@ -27774,7 +27779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -27815,7 +27820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>13</v>
       </c>
@@ -27856,7 +27861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>13</v>
       </c>
@@ -27897,7 +27902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>13</v>
       </c>
@@ -27938,7 +27943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>13</v>
       </c>
@@ -27979,7 +27984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>13</v>
       </c>
@@ -28020,7 +28025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>13</v>
       </c>
@@ -28061,7 +28066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>13</v>
       </c>
@@ -28102,7 +28107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>13</v>
       </c>
@@ -28143,7 +28148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>13</v>
       </c>
@@ -28184,7 +28189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -28225,7 +28230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>13</v>
       </c>
@@ -28266,7 +28271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -28307,7 +28312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>13</v>
       </c>
@@ -28348,7 +28353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>13</v>
       </c>
@@ -28389,7 +28394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -28430,7 +28435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>13</v>
       </c>
@@ -28471,7 +28476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>13</v>
       </c>
@@ -28512,7 +28517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>13</v>
       </c>
@@ -28553,7 +28558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>13</v>
       </c>
@@ -28594,7 +28599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>13</v>
       </c>
@@ -28635,7 +28640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -28676,7 +28681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>13</v>
       </c>
@@ -28717,7 +28722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>13</v>
       </c>
@@ -28758,7 +28763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>13</v>
       </c>
@@ -28799,7 +28804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>13</v>
       </c>
@@ -28840,7 +28845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>13</v>
       </c>
@@ -28881,7 +28886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>13</v>
       </c>
@@ -28922,7 +28927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>13</v>
       </c>
@@ -28963,7 +28968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>13</v>
       </c>
@@ -29004,7 +29009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>13</v>
       </c>
@@ -29045,7 +29050,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>13</v>
       </c>
@@ -29086,7 +29091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>13</v>
       </c>
@@ -29127,7 +29132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>13</v>
       </c>
@@ -29168,7 +29173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>13</v>
       </c>
@@ -29209,7 +29214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>13</v>
       </c>
@@ -29250,7 +29255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>13</v>
       </c>
@@ -29291,7 +29296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>13</v>
       </c>
@@ -29332,7 +29337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>13</v>
       </c>
@@ -29373,7 +29378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>13</v>
       </c>
@@ -29414,7 +29419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>13</v>
       </c>
@@ -29455,7 +29460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>13</v>
       </c>
@@ -29496,7 +29501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>13</v>
       </c>
@@ -29537,7 +29542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>13</v>
       </c>
@@ -29578,7 +29583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>13</v>
       </c>
@@ -29619,7 +29624,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>13</v>
       </c>
@@ -29660,7 +29665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>13</v>
       </c>
@@ -29701,7 +29706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>13</v>
       </c>
@@ -29742,7 +29747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>13</v>
       </c>
@@ -29783,7 +29788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>13</v>
       </c>
@@ -29824,7 +29829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>13</v>
       </c>
@@ -29865,7 +29870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>13</v>
       </c>

--- a/TSP/Solutions/GA_48.xlsx
+++ b/TSP/Solutions/GA_48.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Studia\3 rok\InteligencjaObliczeniowa\ComputationalInteligence\TSP\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A622329E-7547-4895-944C-FBC7A16CA694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30E0B1F-EF69-4421-8568-D7D2F0848CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27936" yWindow="624" windowWidth="21600" windowHeight="11388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$669</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2468,7 +2468,7 @@
   <dimension ref="A1:M669"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,8 +2478,8 @@
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.140625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -29912,7 +29912,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:M669" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M669">
       <sortCondition ref="D1"/>
     </sortState>
